--- a/exp/JoinNaive1_1.0.xlsx
+++ b/exp/JoinNaive1_1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>#"Date"</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Stat_Garbage_Collections_Time</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:40:45 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample1</t>
   </si>
   <si>
@@ -96,64 +93,104 @@
     <t>JoinNaive1</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:40:48 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample2</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:40:51 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample3</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:40:54 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample4</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:40:57 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample5</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:41:01 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample6</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:41:06 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample7</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:41:12 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample8</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:41:20 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample9</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:41:31 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample10</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:41:48 KST 2017</t>
-  </si>
-  <si>
     <t>/USPS_Sample/sample11</t>
+  </si>
+  <si>
+    <t>SampleUSPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result_1_Initialize_Time</t>
+  </si>
+  <si>
+    <t>Mem_1_Initialized</t>
+  </si>
+  <si>
+    <t>Mem_3_BuildIndex</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:58:38 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:58:40 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:58:43 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:58:46 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:58:50 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:58:54 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:58:58 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:59:05 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:59:13 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:59:24 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 14:59:41 KST 2017</t>
+  </si>
+  <si>
+    <t>Preprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,28 +520,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <f>SampleUSPS!I2</f>
+        <v>453</v>
+      </c>
+      <c r="D4">
+        <f>SampleUSPS!J2</f>
+        <v>305</v>
+      </c>
+      <c r="E4">
+        <f>SampleUSPS!L2</f>
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <f>SampleUSPS!N2</f>
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <f>SampleUSPS!Q2</f>
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <f>C4-SUM(D4:G4)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>15848</v>
+      </c>
+      <c r="C5">
+        <f>SampleUSPS!I3</f>
+        <v>593</v>
+      </c>
+      <c r="D5">
+        <f>SampleUSPS!J3</f>
+        <v>394</v>
+      </c>
+      <c r="E5">
+        <f>SampleUSPS!L3</f>
+        <v>103</v>
+      </c>
+      <c r="F5">
+        <f>SampleUSPS!N3</f>
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <f>SampleUSPS!Q3</f>
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H14" si="0">C5-SUM(D5:G5)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>25118</v>
+      </c>
+      <c r="C6">
+        <f>SampleUSPS!I4</f>
+        <v>803</v>
+      </c>
+      <c r="D6">
+        <f>SampleUSPS!J4</f>
+        <v>507</v>
+      </c>
+      <c r="E6">
+        <f>SampleUSPS!L4</f>
+        <v>143</v>
+      </c>
+      <c r="F6">
+        <f>SampleUSPS!N4</f>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f>SampleUSPS!Q4</f>
+        <v>108</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>39810</v>
+      </c>
+      <c r="C7">
+        <f>SampleUSPS!I5</f>
+        <v>1032</v>
+      </c>
+      <c r="D7">
+        <f>SampleUSPS!J5</f>
+        <v>632</v>
+      </c>
+      <c r="E7">
+        <f>SampleUSPS!L5</f>
+        <v>206</v>
+      </c>
+      <c r="F7">
+        <f>SampleUSPS!N5</f>
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <f>SampleUSPS!Q5</f>
+        <v>137</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>63095</v>
+      </c>
+      <c r="C8">
+        <f>SampleUSPS!I6</f>
+        <v>1528</v>
+      </c>
+      <c r="D8">
+        <f>SampleUSPS!J6</f>
+        <v>907</v>
+      </c>
+      <c r="E8">
+        <f>SampleUSPS!L6</f>
+        <v>313</v>
+      </c>
+      <c r="F8">
+        <f>SampleUSPS!N6</f>
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <f>SampleUSPS!Q6</f>
+        <v>225</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>100000</v>
+      </c>
+      <c r="C9">
+        <f>SampleUSPS!I7</f>
+        <v>2174</v>
+      </c>
+      <c r="D9">
+        <f>SampleUSPS!J7</f>
+        <v>1222</v>
+      </c>
+      <c r="E9">
+        <f>SampleUSPS!L7</f>
+        <v>572</v>
+      </c>
+      <c r="F9">
+        <f>SampleUSPS!N7</f>
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <f>SampleUSPS!Q7</f>
+        <v>282</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>158489</v>
+      </c>
+      <c r="C10">
+        <f>SampleUSPS!I8</f>
+        <v>3034</v>
+      </c>
+      <c r="D10">
+        <f>SampleUSPS!J8</f>
+        <v>1769</v>
+      </c>
+      <c r="E10">
+        <f>SampleUSPS!L8</f>
+        <v>655</v>
+      </c>
+      <c r="F10">
+        <f>SampleUSPS!N8</f>
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <f>SampleUSPS!Q8</f>
+        <v>482</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>251188</v>
+      </c>
+      <c r="C11">
+        <f>SampleUSPS!I9</f>
+        <v>4671</v>
+      </c>
+      <c r="D11">
+        <f>SampleUSPS!J9</f>
+        <v>2741</v>
+      </c>
+      <c r="E11">
+        <f>SampleUSPS!L9</f>
+        <v>1136</v>
+      </c>
+      <c r="F11">
+        <f>SampleUSPS!N9</f>
+        <v>122</v>
+      </c>
+      <c r="G11">
+        <f>SampleUSPS!Q9</f>
+        <v>625</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>398107</v>
+      </c>
+      <c r="C12">
+        <f>SampleUSPS!I10</f>
+        <v>7279</v>
+      </c>
+      <c r="D12">
+        <f>SampleUSPS!J10</f>
+        <v>4085</v>
+      </c>
+      <c r="E12">
+        <f>SampleUSPS!L10</f>
+        <v>1996</v>
+      </c>
+      <c r="F12">
+        <f>SampleUSPS!N10</f>
+        <v>178</v>
+      </c>
+      <c r="G12">
+        <f>SampleUSPS!Q10</f>
+        <v>962</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>630957</v>
+      </c>
+      <c r="C13">
+        <f>SampleUSPS!I11</f>
+        <v>11198</v>
+      </c>
+      <c r="D13">
+        <f>SampleUSPS!J11</f>
+        <v>6231</v>
+      </c>
+      <c r="E13">
+        <f>SampleUSPS!L11</f>
+        <v>3122</v>
+      </c>
+      <c r="F13">
+        <f>SampleUSPS!N11</f>
+        <v>258</v>
+      </c>
+      <c r="G13">
+        <f>SampleUSPS!Q11</f>
+        <v>1522</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1000000</v>
+      </c>
+      <c r="C14">
+        <f>SampleUSPS!I12</f>
+        <v>18020</v>
+      </c>
+      <c r="D14">
+        <f>SampleUSPS!J12</f>
+        <v>9815</v>
+      </c>
+      <c r="E14">
+        <f>SampleUSPS!L12</f>
+        <v>4721</v>
+      </c>
+      <c r="F14">
+        <f>SampleUSPS!N12</f>
+        <v>348</v>
+      </c>
+      <c r="G14">
+        <f>SampleUSPS!Q12</f>
+        <v>3076</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,51 +955,60 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -586,54 +1017,63 @@
         <v>10000</v>
       </c>
       <c r="I2">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="J2">
-        <v>70</v>
+        <v>305</v>
       </c>
       <c r="K2">
+        <v>102</v>
+      </c>
+      <c r="L2">
+        <v>69</v>
+      </c>
+      <c r="M2">
         <v>143</v>
       </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
+      <c r="N2">
+        <v>19</v>
+      </c>
+      <c r="O2">
+        <v>143</v>
+      </c>
+      <c r="P2">
         <v>10000</v>
       </c>
-      <c r="N2">
-        <v>42</v>
-      </c>
-      <c r="O2">
-        <v>56</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
       <c r="Q2">
+        <v>46</v>
+      </c>
+      <c r="R2">
+        <v>65</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -642,54 +1082,63 @@
         <v>15848</v>
       </c>
       <c r="I3">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>394</v>
       </c>
       <c r="K3">
+        <v>143</v>
+      </c>
+      <c r="L3">
+        <v>103</v>
+      </c>
+      <c r="M3">
         <v>204</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>21</v>
       </c>
-      <c r="M3">
+      <c r="O3">
+        <v>225</v>
+      </c>
+      <c r="P3">
         <v>15848</v>
       </c>
-      <c r="N3">
-        <v>76</v>
-      </c>
-      <c r="O3">
-        <v>99</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
       <c r="Q3">
+        <v>61</v>
+      </c>
+      <c r="R3">
+        <v>82</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -698,54 +1147,63 @@
         <v>25118</v>
       </c>
       <c r="I4">
-        <v>746</v>
+        <v>803</v>
       </c>
       <c r="J4">
-        <v>137</v>
+        <v>507</v>
       </c>
       <c r="K4">
+        <v>204</v>
+      </c>
+      <c r="L4">
+        <v>143</v>
+      </c>
+      <c r="M4">
         <v>307</v>
       </c>
-      <c r="L4">
-        <v>26</v>
-      </c>
-      <c r="M4">
+      <c r="N4">
+        <v>25</v>
+      </c>
+      <c r="O4">
+        <v>327</v>
+      </c>
+      <c r="P4">
         <v>25118</v>
       </c>
-      <c r="N4">
-        <v>93</v>
-      </c>
-      <c r="O4">
-        <v>119</v>
-      </c>
-      <c r="P4">
-        <v>8</v>
-      </c>
       <c r="Q4">
+        <v>108</v>
+      </c>
+      <c r="R4">
+        <v>134</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -754,54 +1212,63 @@
         <v>39810</v>
       </c>
       <c r="I5">
-        <v>1089</v>
+        <v>1032</v>
       </c>
       <c r="J5">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="K5">
+        <v>307</v>
+      </c>
+      <c r="L5">
+        <v>206</v>
+      </c>
+      <c r="M5">
         <v>471</v>
       </c>
-      <c r="L5">
-        <v>38</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>491</v>
+      </c>
+      <c r="P5">
         <v>39810</v>
       </c>
-      <c r="N5">
-        <v>162</v>
-      </c>
-      <c r="O5">
-        <v>200</v>
-      </c>
-      <c r="P5">
-        <v>16</v>
-      </c>
       <c r="Q5">
+        <v>137</v>
+      </c>
+      <c r="R5">
+        <v>171</v>
+      </c>
+      <c r="S5">
+        <v>13</v>
+      </c>
+      <c r="T5">
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -810,54 +1277,63 @@
         <v>63095</v>
       </c>
       <c r="I6">
-        <v>1479</v>
+        <v>1528</v>
       </c>
       <c r="J6">
-        <v>304</v>
+        <v>907</v>
       </c>
       <c r="K6">
+        <v>450</v>
+      </c>
+      <c r="L6">
+        <v>313</v>
+      </c>
+      <c r="M6">
         <v>716</v>
       </c>
-      <c r="L6">
-        <v>50</v>
-      </c>
-      <c r="M6">
+      <c r="N6">
+        <v>53</v>
+      </c>
+      <c r="O6">
+        <v>737</v>
+      </c>
+      <c r="P6">
         <v>63095</v>
       </c>
-      <c r="N6">
-        <v>220</v>
-      </c>
-      <c r="O6">
-        <v>271</v>
-      </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>225</v>
+      </c>
+      <c r="R6">
+        <v>279</v>
+      </c>
+      <c r="S6">
         <v>18</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -866,54 +1342,63 @@
         <v>100000</v>
       </c>
       <c r="I7">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="J7">
-        <v>569</v>
+        <v>1222</v>
       </c>
       <c r="K7">
+        <v>675</v>
+      </c>
+      <c r="L7">
+        <v>572</v>
+      </c>
+      <c r="M7">
         <v>162</v>
       </c>
-      <c r="L7">
-        <v>56</v>
-      </c>
-      <c r="M7">
+      <c r="N7">
+        <v>61</v>
+      </c>
+      <c r="O7">
+        <v>213</v>
+      </c>
+      <c r="P7">
         <v>100000</v>
       </c>
-      <c r="N7">
-        <v>272</v>
-      </c>
-      <c r="O7">
-        <v>328</v>
-      </c>
-      <c r="P7">
+      <c r="Q7">
+        <v>282</v>
+      </c>
+      <c r="R7">
+        <v>343</v>
+      </c>
+      <c r="S7">
         <v>27</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>1</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -922,54 +1407,63 @@
         <v>158489</v>
       </c>
       <c r="I8">
-        <v>3117</v>
+        <v>3034</v>
       </c>
       <c r="J8">
-        <v>664</v>
+        <v>1769</v>
       </c>
       <c r="K8">
-        <v>761</v>
+        <v>1024</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>655</v>
       </c>
       <c r="M8">
+        <v>775</v>
+      </c>
+      <c r="N8">
+        <v>90</v>
+      </c>
+      <c r="O8">
+        <v>825</v>
+      </c>
+      <c r="P8">
         <v>158489</v>
       </c>
-      <c r="N8">
-        <v>493</v>
-      </c>
-      <c r="O8">
-        <v>590</v>
-      </c>
-      <c r="P8">
+      <c r="Q8">
+        <v>482</v>
+      </c>
+      <c r="R8">
+        <v>572</v>
+      </c>
+      <c r="S8">
         <v>28</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>1</v>
       </c>
-      <c r="R8">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -978,54 +1472,63 @@
         <v>251188</v>
       </c>
       <c r="I9">
-        <v>4595</v>
+        <v>4671</v>
       </c>
       <c r="J9">
-        <v>1101</v>
+        <v>2741</v>
       </c>
       <c r="K9">
+        <v>605</v>
+      </c>
+      <c r="L9">
+        <v>1136</v>
+      </c>
+      <c r="M9">
         <v>818</v>
       </c>
-      <c r="L9">
-        <v>112</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>122</v>
+      </c>
+      <c r="O9">
+        <v>872</v>
+      </c>
+      <c r="P9">
         <v>251188</v>
       </c>
-      <c r="N9">
-        <v>633</v>
-      </c>
-      <c r="O9">
-        <v>745</v>
-      </c>
-      <c r="P9">
-        <v>39</v>
-      </c>
       <c r="Q9">
+        <v>625</v>
+      </c>
+      <c r="R9">
+        <v>748</v>
+      </c>
+      <c r="S9">
+        <v>37</v>
+      </c>
+      <c r="T9">
         <v>2</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1034,54 +1537,63 @@
         <v>398107</v>
       </c>
       <c r="I10">
-        <v>7083</v>
+        <v>7279</v>
       </c>
       <c r="J10">
-        <v>2005</v>
+        <v>4085</v>
       </c>
       <c r="K10">
-        <v>429</v>
+        <v>522</v>
       </c>
       <c r="L10">
-        <v>176</v>
+        <v>1996</v>
       </c>
       <c r="M10">
+        <v>430</v>
+      </c>
+      <c r="N10">
+        <v>178</v>
+      </c>
+      <c r="O10">
+        <v>552</v>
+      </c>
+      <c r="P10">
         <v>398107</v>
       </c>
-      <c r="N10">
-        <v>983</v>
-      </c>
-      <c r="O10">
-        <v>1159</v>
-      </c>
-      <c r="P10">
-        <v>47</v>
-      </c>
       <c r="Q10">
+        <v>962</v>
+      </c>
+      <c r="R10">
+        <v>1141</v>
+      </c>
+      <c r="S10">
+        <v>46</v>
+      </c>
+      <c r="T10">
         <v>4</v>
       </c>
-      <c r="R10">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1090,54 +1602,63 @@
         <v>630957</v>
       </c>
       <c r="I11">
-        <v>10854</v>
+        <v>11198</v>
       </c>
       <c r="J11">
-        <v>3113</v>
+        <v>6231</v>
       </c>
       <c r="K11">
+        <v>935</v>
+      </c>
+      <c r="L11">
+        <v>3122</v>
+      </c>
+      <c r="M11">
         <v>949</v>
       </c>
-      <c r="L11">
-        <v>257</v>
-      </c>
-      <c r="M11">
+      <c r="N11">
+        <v>258</v>
+      </c>
+      <c r="O11">
+        <v>1121</v>
+      </c>
+      <c r="P11">
         <v>630957</v>
       </c>
-      <c r="N11">
-        <v>1507</v>
-      </c>
-      <c r="O11">
-        <v>1764</v>
-      </c>
-      <c r="P11">
-        <v>55</v>
-      </c>
       <c r="Q11">
+        <v>1522</v>
+      </c>
+      <c r="R11">
+        <v>1781</v>
+      </c>
+      <c r="S11">
+        <v>53</v>
+      </c>
+      <c r="T11">
         <v>5</v>
       </c>
-      <c r="R11">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1146,34 +1667,43 @@
         <v>1000000</v>
       </c>
       <c r="I12">
-        <v>18066</v>
+        <v>18020</v>
       </c>
       <c r="J12">
-        <v>4767</v>
+        <v>9815</v>
       </c>
       <c r="K12">
+        <v>305</v>
+      </c>
+      <c r="L12">
+        <v>4721</v>
+      </c>
+      <c r="M12">
         <v>1146</v>
       </c>
-      <c r="L12">
-        <v>343</v>
-      </c>
-      <c r="M12">
+      <c r="N12">
+        <v>348</v>
+      </c>
+      <c r="O12">
+        <v>1373</v>
+      </c>
+      <c r="P12">
         <v>1000000</v>
       </c>
-      <c r="N12">
-        <v>3105</v>
-      </c>
-      <c r="O12">
-        <v>3448</v>
-      </c>
-      <c r="P12">
-        <v>47</v>
-      </c>
       <c r="Q12">
+        <v>3076</v>
+      </c>
+      <c r="R12">
+        <v>3424</v>
+      </c>
+      <c r="S12">
+        <v>51</v>
+      </c>
+      <c r="T12">
         <v>9</v>
       </c>
-      <c r="R12">
-        <v>2007</v>
+      <c r="U12">
+        <v>2001</v>
       </c>
     </row>
   </sheetData>

--- a/exp/JoinNaive1_1.0.xlsx
+++ b/exp/JoinNaive1_1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>#"Date"</t>
   </si>
@@ -148,39 +148,6 @@
     <t>Mem_3_BuildIndex</t>
   </si>
   <si>
-    <t>Mon Jul 03 14:58:38 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:58:40 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:58:43 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:58:46 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:58:50 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:58:54 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:58:58 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:59:05 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:59:13 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:59:24 KST 2017</t>
-  </si>
-  <si>
-    <t>Mon Jul 03 14:59:41 KST 2017</t>
-  </si>
-  <si>
     <t>Preprocess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,6 +158,58 @@
   <si>
     <t>Diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detailed Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mem_4_Joined</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:04:51 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:04:54 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:04:57 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:05:00 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:05:03 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:05:07 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:05:12 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:05:18 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:05:26 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:05:38 KST 2017</t>
+  </si>
+  <si>
+    <t>Mon Jul 03 15:05:54 KST 2017</t>
   </si>
 </sst>
 </file>
@@ -255,6 +274,2545 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-799B-4B2D-A1FC-52CC3F725B4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1357506559"/>
+        <c:axId val="1357506975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1357506559"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357506975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1357506975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357506559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Detailed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Execution Times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7119</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-961E-4813-81A2-D2CB6524228C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initialize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6227</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-961E-4813-81A2-D2CB6524228C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preprocess</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$F$4:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-961E-4813-81A2-D2CB6524228C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$G$4:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-961E-4813-81A2-D2CB6524228C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Join</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158489</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>398107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$H$4:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-961E-4813-81A2-D2CB6524228C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1357506559"/>
+        <c:axId val="1357506975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1357506559"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357506975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1357506975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357506559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,40 +3078,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -562,30 +3140,46 @@
       </c>
       <c r="C4">
         <f>SampleUSPS!I2</f>
-        <v>453</v>
-      </c>
-      <c r="D4">
+        <v>447</v>
+      </c>
+      <c r="E4">
         <f>SampleUSPS!J2</f>
-        <v>305</v>
-      </c>
-      <c r="E4">
+        <v>308</v>
+      </c>
+      <c r="F4">
         <f>SampleUSPS!L2</f>
         <v>69</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f>SampleUSPS!N2</f>
-        <v>19</v>
-      </c>
-      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
         <f>SampleUSPS!Q2</f>
-        <v>46</v>
-      </c>
-      <c r="H4">
-        <f>C4-SUM(D4:G4)</f>
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <f>C4-SUM(E4:H4)</f>
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <f>SampleUSPS!K2</f>
+        <v>102</v>
+      </c>
+      <c r="L4">
+        <f>SampleUSPS!M2</f>
+        <v>143</v>
+      </c>
+      <c r="M4">
+        <f>SampleUSPS!O2</f>
+        <v>143</v>
+      </c>
+      <c r="N4">
+        <f>SampleUSPS!R2</f>
+        <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -594,30 +3188,46 @@
       </c>
       <c r="C5">
         <f>SampleUSPS!I3</f>
-        <v>593</v>
-      </c>
-      <c r="D5">
+        <v>557</v>
+      </c>
+      <c r="E5">
         <f>SampleUSPS!J3</f>
-        <v>394</v>
-      </c>
-      <c r="E5">
+        <v>368</v>
+      </c>
+      <c r="F5">
         <f>SampleUSPS!L3</f>
-        <v>103</v>
-      </c>
-      <c r="F5">
+        <v>94</v>
+      </c>
+      <c r="G5">
         <f>SampleUSPS!N3</f>
-        <v>21</v>
-      </c>
-      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
         <f>SampleUSPS!Q3</f>
-        <v>61</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H14" si="0">C5-SUM(D5:G5)</f>
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I14" si="0">C5-SUM(E5:H5)</f>
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <f>SampleUSPS!K3</f>
+        <v>143</v>
+      </c>
+      <c r="L5">
+        <f>SampleUSPS!M3</f>
+        <v>204</v>
+      </c>
+      <c r="M5">
+        <f>SampleUSPS!O3</f>
+        <v>225</v>
+      </c>
+      <c r="N5">
+        <f>SampleUSPS!R3</f>
+        <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -626,30 +3236,46 @@
       </c>
       <c r="C6">
         <f>SampleUSPS!I4</f>
-        <v>803</v>
-      </c>
-      <c r="D6">
+        <v>770</v>
+      </c>
+      <c r="E6">
         <f>SampleUSPS!J4</f>
-        <v>507</v>
-      </c>
-      <c r="E6">
+        <v>499</v>
+      </c>
+      <c r="F6">
         <f>SampleUSPS!L4</f>
-        <v>143</v>
-      </c>
-      <c r="F6">
+        <v>138</v>
+      </c>
+      <c r="G6">
         <f>SampleUSPS!N4</f>
         <v>25</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>SampleUSPS!Q4</f>
-        <v>108</v>
-      </c>
-      <c r="H6">
+        <v>92</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <f>SampleUSPS!K4</f>
+        <v>204</v>
+      </c>
+      <c r="L6">
+        <f>SampleUSPS!M4</f>
+        <v>307</v>
+      </c>
+      <c r="M6">
+        <f>SampleUSPS!O4</f>
+        <v>327</v>
+      </c>
+      <c r="N6">
+        <f>SampleUSPS!R4</f>
+        <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -658,30 +3284,46 @@
       </c>
       <c r="C7">
         <f>SampleUSPS!I5</f>
-        <v>1032</v>
-      </c>
-      <c r="D7">
+        <v>1085</v>
+      </c>
+      <c r="E7">
         <f>SampleUSPS!J5</f>
-        <v>632</v>
-      </c>
-      <c r="E7">
+        <v>671</v>
+      </c>
+      <c r="F7">
         <f>SampleUSPS!L5</f>
-        <v>206</v>
-      </c>
-      <c r="F7">
+        <v>207</v>
+      </c>
+      <c r="G7">
         <f>SampleUSPS!N5</f>
-        <v>34</v>
-      </c>
-      <c r="G7">
+        <v>39</v>
+      </c>
+      <c r="H7">
         <f>SampleUSPS!Q5</f>
-        <v>137</v>
-      </c>
-      <c r="H7">
+        <v>144</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <f>SampleUSPS!K5</f>
+        <v>307</v>
+      </c>
+      <c r="L7">
+        <f>SampleUSPS!M5</f>
+        <v>471</v>
+      </c>
+      <c r="M7">
+        <f>SampleUSPS!O5</f>
+        <v>491</v>
+      </c>
+      <c r="N7">
+        <f>SampleUSPS!R5</f>
+        <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -690,30 +3332,46 @@
       </c>
       <c r="C8">
         <f>SampleUSPS!I6</f>
-        <v>1528</v>
-      </c>
-      <c r="D8">
+        <v>1546</v>
+      </c>
+      <c r="E8">
         <f>SampleUSPS!J6</f>
-        <v>907</v>
-      </c>
-      <c r="E8">
+        <v>911</v>
+      </c>
+      <c r="F8">
         <f>SampleUSPS!L6</f>
-        <v>313</v>
-      </c>
-      <c r="F8">
+        <v>306</v>
+      </c>
+      <c r="G8">
         <f>SampleUSPS!N6</f>
-        <v>53</v>
-      </c>
-      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
         <f>SampleUSPS!Q6</f>
-        <v>225</v>
-      </c>
-      <c r="H8">
+        <v>246</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <f>SampleUSPS!K6</f>
+        <v>450</v>
+      </c>
+      <c r="L8">
+        <f>SampleUSPS!M6</f>
+        <v>716</v>
+      </c>
+      <c r="M8">
+        <f>SampleUSPS!O6</f>
+        <v>737</v>
+      </c>
+      <c r="N8">
+        <f>SampleUSPS!R6</f>
+        <v>839</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -722,30 +3380,46 @@
       </c>
       <c r="C9">
         <f>SampleUSPS!I7</f>
-        <v>2174</v>
-      </c>
-      <c r="D9">
+        <v>2184</v>
+      </c>
+      <c r="E9">
         <f>SampleUSPS!J7</f>
-        <v>1222</v>
-      </c>
-      <c r="E9">
+        <v>1239</v>
+      </c>
+      <c r="F9">
         <f>SampleUSPS!L7</f>
-        <v>572</v>
-      </c>
-      <c r="F9">
+        <v>562</v>
+      </c>
+      <c r="G9">
         <f>SampleUSPS!N7</f>
-        <v>61</v>
-      </c>
-      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
         <f>SampleUSPS!Q7</f>
-        <v>282</v>
-      </c>
-      <c r="H9">
+        <v>289</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <f>SampleUSPS!K7</f>
+        <v>675</v>
+      </c>
+      <c r="L9">
+        <f>SampleUSPS!M7</f>
+        <v>162</v>
+      </c>
+      <c r="M9">
+        <f>SampleUSPS!O7</f>
+        <v>213</v>
+      </c>
+      <c r="N9">
+        <f>SampleUSPS!R7</f>
+        <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -754,30 +3428,46 @@
       </c>
       <c r="C10">
         <f>SampleUSPS!I8</f>
-        <v>3034</v>
-      </c>
-      <c r="D10">
+        <v>3055</v>
+      </c>
+      <c r="E10">
         <f>SampleUSPS!J8</f>
-        <v>1769</v>
-      </c>
-      <c r="E10">
+        <v>1835</v>
+      </c>
+      <c r="F10">
         <f>SampleUSPS!L8</f>
-        <v>655</v>
-      </c>
-      <c r="F10">
+        <v>652</v>
+      </c>
+      <c r="G10">
         <f>SampleUSPS!N8</f>
-        <v>90</v>
-      </c>
-      <c r="G10">
+        <v>76</v>
+      </c>
+      <c r="H10">
         <f>SampleUSPS!Q8</f>
-        <v>482</v>
-      </c>
-      <c r="H10">
+        <v>456</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <f>SampleUSPS!K8</f>
+        <v>1024</v>
+      </c>
+      <c r="L10">
+        <f>SampleUSPS!M8</f>
+        <v>761</v>
+      </c>
+      <c r="M10">
+        <f>SampleUSPS!O8</f>
+        <v>812</v>
+      </c>
+      <c r="N10">
+        <f>SampleUSPS!R8</f>
+        <v>1079</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -786,30 +3476,46 @@
       </c>
       <c r="C11">
         <f>SampleUSPS!I9</f>
-        <v>4671</v>
-      </c>
-      <c r="D11">
+        <v>4636</v>
+      </c>
+      <c r="E11">
         <f>SampleUSPS!J9</f>
-        <v>2741</v>
-      </c>
-      <c r="E11">
+        <v>2712</v>
+      </c>
+      <c r="F11">
         <f>SampleUSPS!L9</f>
-        <v>1136</v>
-      </c>
-      <c r="F11">
+        <v>1126</v>
+      </c>
+      <c r="G11">
         <f>SampleUSPS!N9</f>
-        <v>122</v>
-      </c>
-      <c r="G11">
+        <v>124</v>
+      </c>
+      <c r="H11">
         <f>SampleUSPS!Q9</f>
-        <v>625</v>
-      </c>
-      <c r="H11">
+        <v>626</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="K11">
+        <f>SampleUSPS!K9</f>
+        <v>606</v>
+      </c>
+      <c r="L11">
+        <f>SampleUSPS!M9</f>
+        <v>818</v>
+      </c>
+      <c r="M11">
+        <f>SampleUSPS!O9</f>
+        <v>872</v>
+      </c>
+      <c r="N11">
+        <f>SampleUSPS!R9</f>
+        <v>1277</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -818,30 +3524,46 @@
       </c>
       <c r="C12">
         <f>SampleUSPS!I10</f>
-        <v>7279</v>
-      </c>
-      <c r="D12">
+        <v>7119</v>
+      </c>
+      <c r="E12">
         <f>SampleUSPS!J10</f>
-        <v>4085</v>
-      </c>
-      <c r="E12">
+        <v>3915</v>
+      </c>
+      <c r="F12">
         <f>SampleUSPS!L10</f>
-        <v>1996</v>
-      </c>
-      <c r="F12">
+        <v>1995</v>
+      </c>
+      <c r="G12">
         <f>SampleUSPS!N10</f>
-        <v>178</v>
-      </c>
-      <c r="G12">
+        <v>179</v>
+      </c>
+      <c r="H12">
         <f>SampleUSPS!Q10</f>
-        <v>962</v>
-      </c>
-      <c r="H12">
+        <v>974</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <f>SampleUSPS!K10</f>
+        <v>522</v>
+      </c>
+      <c r="L12">
+        <f>SampleUSPS!M10</f>
+        <v>430</v>
+      </c>
+      <c r="M12">
+        <f>SampleUSPS!O10</f>
+        <v>560</v>
+      </c>
+      <c r="N12">
+        <f>SampleUSPS!R10</f>
+        <v>1172</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -850,30 +3572,46 @@
       </c>
       <c r="C13">
         <f>SampleUSPS!I11</f>
-        <v>11198</v>
-      </c>
-      <c r="D13">
+        <v>11024</v>
+      </c>
+      <c r="E13">
         <f>SampleUSPS!J11</f>
-        <v>6231</v>
-      </c>
-      <c r="E13">
+        <v>6227</v>
+      </c>
+      <c r="F13">
         <f>SampleUSPS!L11</f>
-        <v>3122</v>
-      </c>
-      <c r="F13">
+        <v>2989</v>
+      </c>
+      <c r="G13">
         <f>SampleUSPS!N11</f>
-        <v>258</v>
-      </c>
-      <c r="G13">
+        <v>267</v>
+      </c>
+      <c r="H13">
         <f>SampleUSPS!Q11</f>
-        <v>1522</v>
-      </c>
-      <c r="H13">
+        <v>1479</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="K13">
+        <f>SampleUSPS!K11</f>
+        <v>935</v>
+      </c>
+      <c r="L13">
+        <f>SampleUSPS!M11</f>
+        <v>949</v>
+      </c>
+      <c r="M13">
+        <f>SampleUSPS!O11</f>
+        <v>1071</v>
+      </c>
+      <c r="N13">
+        <f>SampleUSPS!R11</f>
+        <v>2132</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -882,42 +3620,59 @@
       </c>
       <c r="C14">
         <f>SampleUSPS!I12</f>
-        <v>18020</v>
-      </c>
-      <c r="D14">
+        <v>17997</v>
+      </c>
+      <c r="E14">
         <f>SampleUSPS!J12</f>
-        <v>9815</v>
-      </c>
-      <c r="E14">
+        <v>9869</v>
+      </c>
+      <c r="F14">
         <f>SampleUSPS!L12</f>
-        <v>4721</v>
-      </c>
-      <c r="F14">
+        <v>4666</v>
+      </c>
+      <c r="G14">
         <f>SampleUSPS!N12</f>
-        <v>348</v>
-      </c>
-      <c r="G14">
+        <v>355</v>
+      </c>
+      <c r="H14">
         <f>SampleUSPS!Q12</f>
-        <v>3076</v>
-      </c>
-      <c r="H14">
+        <v>3052</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <f>SampleUSPS!K12</f>
+        <v>306</v>
+      </c>
+      <c r="L14">
+        <f>SampleUSPS!M12</f>
+        <v>1146</v>
+      </c>
+      <c r="M14">
+        <f>SampleUSPS!O12</f>
+        <v>1367</v>
+      </c>
+      <c r="N14">
+        <f>SampleUSPS!R12</f>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J2:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,7 +3681,7 @@
     <col min="11" max="11" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,21 +3734,24 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1017,10 +3775,10 @@
         <v>10000</v>
       </c>
       <c r="I2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K2">
         <v>102</v>
@@ -1032,7 +3790,7 @@
         <v>143</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O2">
         <v>143</v>
@@ -1041,24 +3799,27 @@
         <v>10000</v>
       </c>
       <c r="Q2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R2">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1082,22 +3843,22 @@
         <v>15848</v>
       </c>
       <c r="I3">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="J3">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="K3">
         <v>143</v>
       </c>
       <c r="L3">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M3">
         <v>204</v>
       </c>
       <c r="N3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O3">
         <v>225</v>
@@ -1106,24 +3867,27 @@
         <v>15848</v>
       </c>
       <c r="Q3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R3">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="S3">
+        <v>81</v>
+      </c>
+      <c r="T3">
         <v>5</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1147,16 +3911,16 @@
         <v>25118</v>
       </c>
       <c r="I4">
-        <v>803</v>
+        <v>770</v>
       </c>
       <c r="J4">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K4">
         <v>204</v>
       </c>
       <c r="L4">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M4">
         <v>307</v>
@@ -1171,24 +3935,27 @@
         <v>25118</v>
       </c>
       <c r="Q4">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="R4">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1212,22 +3979,22 @@
         <v>39810</v>
       </c>
       <c r="I5">
-        <v>1032</v>
+        <v>1085</v>
       </c>
       <c r="J5">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="K5">
         <v>307</v>
       </c>
       <c r="L5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M5">
         <v>471</v>
       </c>
       <c r="N5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O5">
         <v>491</v>
@@ -1236,24 +4003,27 @@
         <v>39810</v>
       </c>
       <c r="Q5">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="R5">
-        <v>171</v>
+        <v>552</v>
       </c>
       <c r="S5">
+        <v>184</v>
+      </c>
+      <c r="T5">
         <v>13</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1277,22 +4047,22 @@
         <v>63095</v>
       </c>
       <c r="I6">
-        <v>1528</v>
+        <v>1546</v>
       </c>
       <c r="J6">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="K6">
         <v>450</v>
       </c>
       <c r="L6">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M6">
         <v>716</v>
       </c>
       <c r="N6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O6">
         <v>737</v>
@@ -1301,24 +4071,27 @@
         <v>63095</v>
       </c>
       <c r="Q6">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="R6">
-        <v>279</v>
+        <v>839</v>
       </c>
       <c r="S6">
+        <v>302</v>
+      </c>
+      <c r="T6">
         <v>18</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1342,22 +4115,22 @@
         <v>100000</v>
       </c>
       <c r="I7">
-        <v>2174</v>
+        <v>2184</v>
       </c>
       <c r="J7">
-        <v>1222</v>
+        <v>1239</v>
       </c>
       <c r="K7">
         <v>675</v>
       </c>
       <c r="L7">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="M7">
         <v>162</v>
       </c>
       <c r="N7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O7">
         <v>213</v>
@@ -1366,24 +4139,27 @@
         <v>100000</v>
       </c>
       <c r="Q7">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="R7">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="S7">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="T7">
+        <v>23</v>
+      </c>
+      <c r="U7">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1407,48 +4183,51 @@
         <v>158489</v>
       </c>
       <c r="I8">
-        <v>3034</v>
+        <v>3055</v>
       </c>
       <c r="J8">
-        <v>1769</v>
+        <v>1835</v>
       </c>
       <c r="K8">
         <v>1024</v>
       </c>
       <c r="L8">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="M8">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="N8">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O8">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="P8">
         <v>158489</v>
       </c>
       <c r="Q8">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="R8">
-        <v>572</v>
+        <v>1079</v>
       </c>
       <c r="S8">
-        <v>28</v>
+        <v>533</v>
       </c>
       <c r="T8">
+        <v>26</v>
+      </c>
+      <c r="U8">
         <v>1</v>
       </c>
-      <c r="U8">
-        <v>71</v>
+      <c r="V8">
+        <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1472,22 +4251,22 @@
         <v>251188</v>
       </c>
       <c r="I9">
-        <v>4671</v>
+        <v>4636</v>
       </c>
       <c r="J9">
-        <v>2741</v>
+        <v>2712</v>
       </c>
       <c r="K9">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L9">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="M9">
         <v>818</v>
       </c>
       <c r="N9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O9">
         <v>872</v>
@@ -1496,24 +4275,27 @@
         <v>251188</v>
       </c>
       <c r="Q9">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="R9">
-        <v>748</v>
+        <v>1277</v>
       </c>
       <c r="S9">
-        <v>37</v>
+        <v>751</v>
       </c>
       <c r="T9">
+        <v>38</v>
+      </c>
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="U9">
-        <v>176</v>
+      <c r="V9">
+        <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1537,48 +4319,51 @@
         <v>398107</v>
       </c>
       <c r="I10">
-        <v>7279</v>
+        <v>7119</v>
       </c>
       <c r="J10">
-        <v>4085</v>
+        <v>3915</v>
       </c>
       <c r="K10">
         <v>522</v>
       </c>
       <c r="L10">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="M10">
         <v>430</v>
       </c>
       <c r="N10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O10">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="P10">
         <v>398107</v>
       </c>
       <c r="Q10">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="R10">
-        <v>1141</v>
+        <v>1172</v>
       </c>
       <c r="S10">
-        <v>46</v>
+        <v>1154</v>
       </c>
       <c r="T10">
+        <v>44</v>
+      </c>
+      <c r="U10">
         <v>4</v>
       </c>
-      <c r="U10">
-        <v>554</v>
+      <c r="V10">
+        <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1602,48 +4387,51 @@
         <v>630957</v>
       </c>
       <c r="I11">
-        <v>11198</v>
+        <v>11024</v>
       </c>
       <c r="J11">
-        <v>6231</v>
+        <v>6227</v>
       </c>
       <c r="K11">
         <v>935</v>
       </c>
       <c r="L11">
-        <v>3122</v>
+        <v>2989</v>
       </c>
       <c r="M11">
         <v>949</v>
       </c>
       <c r="N11">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="O11">
-        <v>1121</v>
+        <v>1071</v>
       </c>
       <c r="P11">
         <v>630957</v>
       </c>
       <c r="Q11">
-        <v>1522</v>
+        <v>1479</v>
       </c>
       <c r="R11">
-        <v>1781</v>
+        <v>2132</v>
       </c>
       <c r="S11">
-        <v>53</v>
+        <v>1747</v>
       </c>
       <c r="T11">
+        <v>52</v>
+      </c>
+      <c r="U11">
         <v>5</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -1667,43 +4455,46 @@
         <v>1000000</v>
       </c>
       <c r="I12">
-        <v>18020</v>
+        <v>17997</v>
       </c>
       <c r="J12">
-        <v>9815</v>
+        <v>9869</v>
       </c>
       <c r="K12">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L12">
-        <v>4721</v>
+        <v>4666</v>
       </c>
       <c r="M12">
         <v>1146</v>
       </c>
       <c r="N12">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O12">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="P12">
         <v>1000000</v>
       </c>
       <c r="Q12">
-        <v>3076</v>
+        <v>3052</v>
       </c>
       <c r="R12">
-        <v>3424</v>
+        <v>1507</v>
       </c>
       <c r="S12">
-        <v>51</v>
+        <v>3407</v>
       </c>
       <c r="T12">
+        <v>47</v>
+      </c>
+      <c r="U12">
         <v>9</v>
       </c>
-      <c r="U12">
-        <v>2001</v>
+      <c r="V12">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/exp/JoinNaive1_1.0.xlsx
+++ b/exp/JoinNaive1_1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -3080,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3671,7 +3671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
